--- a/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DOANH SỐ CÁ NHÂN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CHI TIÊU" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LŨY KẾ NGÀY" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CHI TIẾT DOANH THU" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DAONH SỐ CÁ NHÂN" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CHI TIÊU" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LŨY KẾ NGÀY" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,257 +427,809 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mã nhân viên</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Doanh số sale chính</t>
+          <t>Mã dịch vụ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Doanh số upsale</t>
+          <t>Ngày thực hiện</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Doanh số đơn 1 bác sĩ</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Doanh số đơn 2 bác sĩ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Số lần phụ phẫu 1</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Số lần phụ phẫu 2</t>
+          <t>Sale chính</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Doanh số thu nợ</t>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>508</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Ngọc Vàng</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>150000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
+      <c r="T2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>509</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Ngọc Vàng</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>12500000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13500000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11000000</v>
+        <v>4000000</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>510</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Đình Quân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17730000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>512</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ngô Thị Cẩm Phương</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>513</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Hồng Nho</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="I6" t="n">
         <v>17730000</v>
       </c>
-      <c r="C6" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v>17730000</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v>14730000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>14730000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34730000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>39730000</v>
+        <v>514</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>150000</v>
+        <v/>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="J7" t="n">
-        <v>11000000</v>
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>515</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Khưu Thị Phượng Gấm</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>525</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Đặng Thị Huệ</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>KCH</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>526</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hoàng Thị Thu Vân</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>500000</v>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -685,6 +1238,315 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Mã nhân viên</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Doanh số sale chính</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Doanh số upsale</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Doanh số đơn 1 bác sĩ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Doanh số đơn 2 bác sĩ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Số lần phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Số lần phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Doanh số thu nợ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12500000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13700000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17730000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>21430000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>38930000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>44930000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>200000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -737,7 +1599,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>879000</v>
+        <v>1379000</v>
       </c>
     </row>
     <row r="5">
@@ -757,7 +1619,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7784000</v>
+        <v>8284000</v>
       </c>
     </row>
   </sheetData>
@@ -765,13 +1627,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,23 +1742,67 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5200000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>39730000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>36730000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7784000</v>
+      <c r="B7" t="n">
+        <v>44930000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41430000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17500000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8284000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="CHI TIẾT DOANH THU" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DAONH SỐ CÁ NHÂN" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CHI TIÊU" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="LŨY KẾ NGÀY" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CHI TIẾT CHI TIÊU" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DOANH SỐ CÁ NHÂN" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CHI TIÊU TỔNG HỢP" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LŨY KẾ NGÀY" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,17 +428,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Tiền tố</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -529,16 +530,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>508</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>07-01-2024</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -609,16 +610,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>509</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>07-01-2024</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,16 +692,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>510</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>07-01-2024</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -769,16 +770,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>512</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>07-01-2024</t>
-        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -849,16 +850,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>513</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>07-02-2024</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -929,16 +930,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>514</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>07-03-2024</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -997,16 +998,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>515</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>07-03-2024</t>
-        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1075,16 +1076,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>525</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>07-06-2024</t>
-        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1155,16 +1156,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>526</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>07-06-2024</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1238,6 +1239,277 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã chi tiêu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày chi</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Phân loại</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lượng chi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>573</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>580</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v/>
+      </c>
+      <c r="F3" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>581</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v/>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>582</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tiền Thuế</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>590</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>679000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>591</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>592</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>599</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1546,7 +1818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1627,7 +1899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,6 +1232,48 @@
       <c r="T10" t="n">
         <v/>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>38930000</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>44930000</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>41430000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>41430000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1244,7 +1286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,6 +1544,22 @@
       </c>
       <c r="F9" t="n">
         <v>500000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>8284000</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +1963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1944,6 +2002,11 @@
           <t>Lượng chi</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Lũy kế ngày</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1966,6 +2029,9 @@
       <c r="F2" t="n">
         <v>200000</v>
       </c>
+      <c r="G2" t="n">
+        <v>23300000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1988,6 +2054,9 @@
       <c r="F3" t="n">
         <v>5000000</v>
       </c>
+      <c r="G3" t="n">
+        <v>9730000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2010,6 +2079,9 @@
       <c r="F4" t="n">
         <v>2584000</v>
       </c>
+      <c r="G4" t="n">
+        <v>6916000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2032,6 +2104,9 @@
       <c r="F5" t="n">
         <v>500000</v>
       </c>
+      <c r="G5" t="n">
+        <v>4700000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2054,6 +2129,9 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="n">
+        <v>6000000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2075,6 +2153,9 @@
       </c>
       <c r="F7" t="n">
         <v>8284000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50646000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,13 +910,13 @@
         <v>14730000</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="Q6" t="n">
-        <v>14730000</v>
+        <v>17730000</v>
       </c>
       <c r="R6" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -939,27 +939,35 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v/>
-      </c>
-      <c r="F7" t="n">
-        <v/>
-      </c>
-      <c r="G7" t="n">
-        <v/>
-      </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Khưu Thị Phượng Gấm</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="I7" t="n">
-        <v/>
+        <v>4500000</v>
       </c>
       <c r="J7" t="n">
         <v/>
@@ -968,22 +976,24 @@
         <v/>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v/>
+        <v>4500000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
       </c>
       <c r="N7" t="n">
         <v/>
       </c>
       <c r="O7" t="n">
-        <v/>
+        <v>4500000</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -998,7 +1008,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1007,7 +1017,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1016,58 +1026,60 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng cung chân mày</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cửa hàng</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
       <c r="N8" t="n">
         <v/>
       </c>
       <c r="O8" t="n">
-        <v>4500000</v>
+        <v>3700000</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4500000</v>
+        <v>3700000</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
-      <c r="S8" t="n">
-        <v/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T8" t="n">
         <v/>
@@ -1085,7 +1097,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1094,35 +1106,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nâng cung chân mày</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>KCH</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
       <c r="K9" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
       <c r="L9" t="n">
-        <v>3700000</v>
+        <v>1500000</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1133,21 +1147,19 @@
         <v/>
       </c>
       <c r="O9" t="n">
-        <v>3700000</v>
+        <v>1000000</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="Q9" t="n">
-        <v>3700000</v>
+        <v>1500000</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="S9" t="n">
+        <v/>
       </c>
       <c r="T9" t="n">
         <v/>
@@ -1156,7 +1168,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1165,7 +1177,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1174,106 +1186,1530 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lê Thị Tuyết Anh</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>534</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Khưu Thị Phượng Gấm</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>535</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Phun mày</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Hoàng Thị Thu Vân</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Phan Minh Nguyệt</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>CTV</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>CTV Ngoài</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>500000</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="K12" t="n">
+        <v>400000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>900000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v>900000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>900000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>538</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>539</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Trần Thị Thuỳ</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>545</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Phạm Thị Tuyết Nhi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>546</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Huỳnh Thị Kim Trâm</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>547</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nguyễn Phương Thuý</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v/>
+      </c>
+      <c r="O17" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R17" t="n">
+        <v>300000</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>548</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Nhiên</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>549</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Nhiên</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v/>
+      </c>
+      <c r="O19" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v/>
+      </c>
+      <c r="T19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>550</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lê Thị Hiền</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1000000</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L20" t="n">
         <v>1500000</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="R10" t="n">
-        <v>500000</v>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
+      <c r="N20" t="n">
+        <v/>
+      </c>
+      <c r="O20" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v/>
+      </c>
+      <c r="T20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>556</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nguyễn Bảo Hân</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="J21" t="n">
+        <v/>
+      </c>
+      <c r="K21" t="n">
+        <v/>
+      </c>
+      <c r="L21" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v/>
+      </c>
+      <c r="O21" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v/>
+      </c>
+      <c r="T21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>557</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc My</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="J22" t="n">
+        <v/>
+      </c>
+      <c r="K22" t="n">
+        <v/>
+      </c>
+      <c r="L22" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v/>
+      </c>
+      <c r="O22" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>558</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Lê Thị Kiều</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J23" t="n">
+        <v/>
+      </c>
+      <c r="K23" t="n">
+        <v/>
+      </c>
+      <c r="L23" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v/>
+      </c>
+      <c r="O23" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>559</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Lê Thị Kiều</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="J24" t="n">
+        <v/>
+      </c>
+      <c r="K24" t="n">
+        <v/>
+      </c>
+      <c r="L24" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v/>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>563</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nguyễn Bảo Nhi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="J25" t="n">
+        <v/>
+      </c>
+      <c r="K25" t="n">
+        <v/>
+      </c>
+      <c r="L25" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v/>
+      </c>
+      <c r="O25" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v/>
+      </c>
+      <c r="T25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>564</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Đặng Thị Ngọc Huyền</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="J26" t="n">
+        <v/>
+      </c>
+      <c r="K26" t="n">
+        <v/>
+      </c>
+      <c r="L26" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v/>
+      </c>
+      <c r="O26" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v/>
+      </c>
+      <c r="T26" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>565</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sữ Thị Thanh Tuyền</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="J27" t="n">
+        <v/>
+      </c>
+      <c r="K27" t="n">
+        <v/>
+      </c>
+      <c r="L27" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>566</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Bảo Anh</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="J28" t="n">
+        <v/>
+      </c>
+      <c r="K28" t="n">
+        <v/>
+      </c>
+      <c r="L28" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v/>
+      </c>
+      <c r="O28" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v/>
+      </c>
+      <c r="T28" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>38930000</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="L11" t="n">
-        <v>44930000</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>41430000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>41430000</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>162680000</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>16700000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>179380000</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>153580000</v>
+      </c>
+      <c r="P29" t="n">
         <v>3500000</v>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>157080000</v>
+      </c>
+      <c r="R29" t="n">
+        <v>22300000</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1286,7 +2722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1417,7 +2853,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1549,17 +2985,767 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>608</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>7760000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>609</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>652000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>610</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>611</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v>2843000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>613</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>614</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>615</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>616</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>617</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>622</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>623</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>624</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v/>
+      </c>
+      <c r="F21" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>625</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>626</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>636</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>637</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>638</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>639</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>640</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1130000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>641</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1170000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>650</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>651</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>655</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v/>
+      </c>
+      <c r="F32" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>656</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>14630000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>657</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>658</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>659</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>8284000</v>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>57922000</v>
       </c>
     </row>
   </sheetData>
@@ -1573,7 +3759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1640,7 +3826,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500000</v>
+        <v>3500000</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1664,17 +3850,17 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1686,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1704,26 +3890,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12500000</v>
+        <v>10000000</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>13500000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1732,23 +3918,23 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4500000</v>
+        <v>41200000</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>13700000</v>
+        <v>43100000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1766,23 +3952,23 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>21700000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>53000000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>17730000</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1806,17 +3992,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21430000</v>
+        <v>6000000</v>
       </c>
       <c r="C7" t="n">
-        <v>6000000</v>
+        <v>2300000</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>45550000</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1840,35 +4026,137 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>72730000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>44580000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14400000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>38930000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>44930000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>200000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>17500000</v>
+      <c r="B11" t="n">
+        <v>162680000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16700000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>161380000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>750000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>25700000</v>
       </c>
     </row>
   </sheetData>
@@ -1882,7 +4170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,51 +4193,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1905000</v>
+        <v>1850000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tiền Thuế</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>14630000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1379000</v>
+        <v>2265000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5000000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Tiền Thuế</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7985000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12149000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>17843000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>8284000</v>
+      <c r="B10" t="n">
+        <v>57922000</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +4291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2071,7 +4399,7 @@
         <v>4500000</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>5000000</v>
@@ -2136,26 +4464,226 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12805000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-10205000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07-09-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1550000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12500000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6438000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6062000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07-12-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4300000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4300000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24500000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24200000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6165000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18035000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-15-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>54300000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>40800000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>43800000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>25350000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25350000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>19980000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8370000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>44930000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>41430000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17500000</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8284000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50646000</v>
+      <c r="B15" t="n">
+        <v>179380000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>153580000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>27</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25700000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>57922000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>121358000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,6 +616,12 @@
       <c r="T2" t="n">
         <v/>
       </c>
+      <c r="U2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -688,6 +704,12 @@
       <c r="T3" t="n">
         <v/>
       </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -766,6 +788,12 @@
       <c r="T4" t="n">
         <v/>
       </c>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -846,6 +874,12 @@
       <c r="T5" t="n">
         <v/>
       </c>
+      <c r="U5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -926,6 +960,12 @@
       <c r="T6" t="n">
         <v/>
       </c>
+      <c r="U6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1004,6 +1044,12 @@
       <c r="T7" t="n">
         <v/>
       </c>
+      <c r="U7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1084,6 +1130,12 @@
       <c r="T8" t="n">
         <v/>
       </c>
+      <c r="U8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1164,6 +1216,12 @@
       <c r="T9" t="n">
         <v/>
       </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1242,6 +1300,12 @@
       <c r="T10" t="n">
         <v/>
       </c>
+      <c r="U10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1320,6 +1384,12 @@
       <c r="T11" t="n">
         <v/>
       </c>
+      <c r="U11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1400,6 +1470,12 @@
       <c r="T12" t="n">
         <v/>
       </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1482,6 +1558,12 @@
       <c r="T13" t="n">
         <v/>
       </c>
+      <c r="U13" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1560,6 +1642,12 @@
       <c r="T14" t="n">
         <v/>
       </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1638,6 +1726,12 @@
       <c r="T15" t="n">
         <v/>
       </c>
+      <c r="U15" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1716,6 +1810,12 @@
       <c r="T16" t="n">
         <v/>
       </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1796,6 +1896,12 @@
       <c r="T17" t="n">
         <v/>
       </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1876,6 +1982,12 @@
       <c r="T18" t="n">
         <v/>
       </c>
+      <c r="U18" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1954,6 +2066,12 @@
       <c r="T19" t="n">
         <v/>
       </c>
+      <c r="U19" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2034,6 +2152,12 @@
       <c r="T20" t="n">
         <v/>
       </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2112,6 +2236,12 @@
       <c r="T21" t="n">
         <v/>
       </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2192,6 +2322,12 @@
       <c r="T22" t="n">
         <v/>
       </c>
+      <c r="U22" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V22" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2272,6 +2408,12 @@
       <c r="T23" t="n">
         <v/>
       </c>
+      <c r="U23" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2352,6 +2494,12 @@
       <c r="T24" t="n">
         <v/>
       </c>
+      <c r="U24" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2430,6 +2578,12 @@
       <c r="T25" t="n">
         <v/>
       </c>
+      <c r="U25" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2508,6 +2662,12 @@
       <c r="T26" t="n">
         <v/>
       </c>
+      <c r="U26" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2590,6 +2750,12 @@
       <c r="T27" t="n">
         <v/>
       </c>
+      <c r="U27" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V27" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2667,6 +2833,12 @@
       </c>
       <c r="T28" t="n">
         <v/>
+      </c>
+      <c r="U28" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2710,6 +2882,12 @@
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="V29" t="n">
+        <v>250000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2722,7 +2900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3735,17 +3913,45 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>667</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>35</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>57922000</v>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>58922000</v>
       </c>
     </row>
   </sheetData>
@@ -3775,12 +3981,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Doanh số sale chính</t>
+          <t>Tổng đơn giá sale vòng 1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Doanh số upsale</t>
+          <t>Tổng đơn giá vòng upsale</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -3934,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>43100000</v>
+        <v>34600000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4002,7 +4208,7 @@
         <v>2300000</v>
       </c>
       <c r="D7" t="n">
-        <v>45550000</v>
+        <v>34750000</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4036,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>72730000</v>
+        <v>69730000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -4138,7 +4344,7 @@
         <v>16700000</v>
       </c>
       <c r="D11" t="n">
-        <v>161380000</v>
+        <v>139080000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -4207,7 +4413,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14630000</v>
+        <v>15630000</v>
       </c>
     </row>
     <row r="4">
@@ -4277,7 +4483,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57922000</v>
+        <v>58922000</v>
       </c>
     </row>
   </sheetData>
@@ -4291,7 +4497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4664,26 +4870,51 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>179380000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>153580000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>27</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E16" t="n">
         <v>25700000</v>
       </c>
-      <c r="F15" t="n">
-        <v>57922000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>121358000</v>
+      <c r="F16" t="n">
+        <v>58922000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>120358000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21700000</v>
+        <v>30700000</v>
       </c>
     </row>
     <row r="6">
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>25700000</v>
+        <v>34700000</v>
       </c>
     </row>
   </sheetData>
@@ -4497,7 +4497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4895,26 +4895,51 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>07-19-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>179380000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>153580000</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>27</v>
       </c>
-      <c r="E16" t="n">
-        <v>25700000</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E17" t="n">
+        <v>34700000</v>
+      </c>
+      <c r="F17" t="n">
         <v>58922000</v>
       </c>
-      <c r="G16" t="n">
-        <v>120358000</v>
+      <c r="G17" t="n">
+        <v>129358000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2842,50 +2842,136 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>572</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Huỳnh Thị Như Huỳnh</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v/>
+      </c>
+      <c r="O29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v/>
+      </c>
+      <c r="T29" t="n">
+        <v/>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>27</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>162680000</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>16700000</v>
-      </c>
-      <c r="L29" t="n">
-        <v>179380000</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="n">
-        <v>153580000</v>
-      </c>
-      <c r="P29" t="n">
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>163180000</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>18200000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>181380000</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>155580000</v>
+      </c>
+      <c r="P30" t="n">
         <v>3500000</v>
       </c>
-      <c r="Q29" t="n">
-        <v>157080000</v>
-      </c>
-      <c r="R29" t="n">
+      <c r="Q30" t="n">
+        <v>159080000</v>
+      </c>
+      <c r="R30" t="n">
         <v>22300000</v>
       </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="n">
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="n">
         <v>1250000</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V30" t="n">
         <v>250000</v>
       </c>
     </row>
@@ -2900,7 +2986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2987,8 +3073,10 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>5000000</v>
@@ -3001,7 +3089,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3013,11 +3101,13 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v/>
+        <v>679000</v>
       </c>
     </row>
     <row r="5">
@@ -3027,11 +3117,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07-08-2024</t>
+          <t>07-03-2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3041,11 +3131,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tiền Thuế</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v/>
+        <v>405000</v>
       </c>
     </row>
     <row r="6">
@@ -3055,7 +3145,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3069,11 +3159,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>679000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="7">
@@ -3083,11 +3173,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3097,11 +3187,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>405000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="8">
@@ -3111,11 +3201,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3125,11 +3215,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1500000</v>
+        <v>7760000</v>
       </c>
     </row>
     <row r="9">
@@ -3139,11 +3229,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3157,7 +3247,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>500000</v>
+        <v>652000</v>
       </c>
     </row>
     <row r="10">
@@ -3167,7 +3257,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3181,11 +3271,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7760000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="11">
@@ -3195,7 +3285,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3207,13 +3297,11 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Ứng Lương</t>
-        </is>
+      <c r="E11" t="n">
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>652000</v>
+        <v>2843000</v>
       </c>
     </row>
     <row r="12">
@@ -3223,11 +3311,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07-08-2024</t>
+          <t>07-09-2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3237,11 +3325,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>550000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="13">
@@ -3251,11 +3339,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>07-08-2024</t>
+          <t>07-09-2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3263,11 +3351,13 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
       </c>
       <c r="F13" t="n">
-        <v>2843000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="14">
@@ -3277,11 +3367,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07-09-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3295,7 +3385,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>350000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="15">
@@ -3305,7 +3395,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3333,11 +3423,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07-08-2024</t>
+          <t>07-09-2024</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3351,7 +3441,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="17">
@@ -3361,11 +3451,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>07-09-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3375,11 +3465,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="18">
@@ -3389,11 +3479,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07-09-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3417,7 +3507,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3429,13 +3519,11 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Chi Phí Vận Hành</t>
-        </is>
+      <c r="E19" t="n">
+        <v/>
       </c>
       <c r="F19" t="n">
-        <v>300000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="20">
@@ -3445,7 +3533,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3463,7 +3551,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>500000</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="21">
@@ -3473,7 +3561,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3485,11 +3573,13 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>5000000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="22">
@@ -3499,11 +3589,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3513,11 +3603,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>198000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="23">
@@ -3527,11 +3617,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3541,11 +3631,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>440000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="24">
@@ -3555,11 +3645,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>07-14-2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3569,11 +3659,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1300000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="25">
@@ -3583,11 +3673,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>07-14-2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -3597,11 +3687,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200000</v>
+        <v>365000</v>
       </c>
     </row>
     <row r="26">
@@ -3611,7 +3701,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3629,7 +3719,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3500000</v>
+        <v>1130000</v>
       </c>
     </row>
     <row r="27">
@@ -3639,7 +3729,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3657,7 +3747,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>365000</v>
+        <v>1170000</v>
       </c>
     </row>
     <row r="28">
@@ -3667,11 +3757,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>07-14-2024</t>
+          <t>07-16-2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3681,11 +3771,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1130000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="29">
@@ -3695,11 +3785,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>07-14-2024</t>
+          <t>07-16-2024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3713,7 +3803,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1170000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="30">
@@ -3723,11 +3813,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>07-16-2024</t>
+          <t>07-17-2024</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3735,13 +3825,11 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Phúc lợi công ty</t>
-        </is>
+      <c r="E30" t="n">
+        <v/>
       </c>
       <c r="F30" t="n">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="31">
@@ -3751,11 +3839,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>07-16-2024</t>
+          <t>07-17-2024</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3765,11 +3853,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200000</v>
+        <v>14630000</v>
       </c>
     </row>
     <row r="32">
@@ -3779,7 +3867,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3791,11 +3879,13 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
       </c>
       <c r="F32" t="n">
-        <v>5000000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="33">
@@ -3805,7 +3895,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3819,11 +3909,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>14630000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="34">
@@ -3833,7 +3923,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3847,11 +3937,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>225000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="35">
@@ -3861,11 +3951,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>07-17-2024</t>
+          <t>07-18-2024</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3875,11 +3965,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>60000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="36">
@@ -3889,11 +3979,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>07-17-2024</t>
+          <t>07-19-2024</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3903,11 +3993,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>65000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="37">
@@ -3917,11 +4007,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>07-18-2024</t>
+          <t>07-20-2024</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3931,27 +4021,55 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>672</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>36</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
-        <v>58922000</v>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>63522000</v>
       </c>
     </row>
   </sheetData>
@@ -4032,7 +4150,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4208,7 +4326,7 @@
         <v>2300000</v>
       </c>
       <c r="D7" t="n">
-        <v>34750000</v>
+        <v>36750000</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4307,7 +4425,7 @@
         <v>44580000</v>
       </c>
       <c r="C10" t="n">
-        <v>14400000</v>
+        <v>15900000</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4338,13 +4456,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162680000</v>
+        <v>163180000</v>
       </c>
       <c r="C11" t="n">
-        <v>16700000</v>
+        <v>18200000</v>
       </c>
       <c r="D11" t="n">
-        <v>139080000</v>
+        <v>141080000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -4403,7 +4521,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1850000</v>
+        <v>3450000</v>
       </c>
     </row>
     <row r="3">
@@ -4419,31 +4537,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2265000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1200000</v>
+        <v>2265000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tiền Thuế</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="7">
@@ -4463,7 +4581,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12149000</v>
+        <v>15149000</v>
       </c>
     </row>
     <row r="9">
@@ -4473,7 +4591,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17843000</v>
+        <v>12843000</v>
       </c>
     </row>
     <row r="10">
@@ -4483,7 +4601,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58922000</v>
+        <v>63522000</v>
       </c>
     </row>
   </sheetData>
@@ -4497,7 +4615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4911,35 +5029,60 @@
         <v>9000000</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="G16" t="n">
-        <v>9000000</v>
+        <v>7400000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>179380000</v>
-      </c>
-      <c r="C17" t="n">
-        <v>153580000</v>
-      </c>
-      <c r="D17" t="n">
-        <v>27</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="B18" t="n">
+        <v>181380000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>155580000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28</v>
+      </c>
+      <c r="E18" t="n">
         <v>34700000</v>
       </c>
-      <c r="F17" t="n">
-        <v>58922000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>129358000</v>
+      <c r="F18" t="n">
+        <v>63522000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>126758000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/CẦN THƠ 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2928,51 +2928,307 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>575</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Lan Anh</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="J30" t="n">
+        <v/>
+      </c>
+      <c r="K30" t="n">
+        <v/>
+      </c>
+      <c r="L30" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v/>
+      </c>
+      <c r="O30" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v/>
+      </c>
+      <c r="U30" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V30" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>576</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Phương</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J31" t="n">
+        <v/>
+      </c>
+      <c r="K31" t="n">
+        <v/>
+      </c>
+      <c r="L31" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v/>
+      </c>
+      <c r="O31" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v/>
+      </c>
+      <c r="U31" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>577</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Trương Thị Thuỳ</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J32" t="n">
+        <v/>
+      </c>
+      <c r="K32" t="n">
+        <v/>
+      </c>
+      <c r="L32" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v/>
+      </c>
+      <c r="O32" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v/>
+      </c>
+      <c r="T32" t="n">
+        <v/>
+      </c>
+      <c r="U32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>28</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
-        <v>163180000</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>198180000</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
         <v>18200000</v>
       </c>
-      <c r="L30" t="n">
-        <v>181380000</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
-        <v>155580000</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="L33" t="n">
+        <v>216380000</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>190580000</v>
+      </c>
+      <c r="P33" t="n">
         <v>3500000</v>
       </c>
-      <c r="Q30" t="n">
-        <v>159080000</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="Q33" t="n">
+        <v>194080000</v>
+      </c>
+      <c r="R33" t="n">
         <v>22300000</v>
       </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="n">
-        <v>1250000</v>
-      </c>
-      <c r="V30" t="n">
-        <v>250000</v>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="V33" t="n">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>
@@ -2986,7 +3242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4059,17 +4315,73 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>677</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>678</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>37</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>63522000</v>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>64467000</v>
       </c>
     </row>
   </sheetData>
@@ -4230,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>700000</v>
+        <v>850000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -4258,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>34600000</v>
+        <v>39600000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4354,13 +4666,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>69730000</v>
+        <v>99730000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -4456,22 +4768,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163180000</v>
+        <v>198180000</v>
       </c>
       <c r="C11" t="n">
         <v>18200000</v>
       </c>
       <c r="D11" t="n">
-        <v>141080000</v>
+        <v>176080000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>750000</v>
+        <v>900000</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -4494,7 +4806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4551,57 +4863,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2265000</v>
+        <v>2460000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1200000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7985000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15149000</v>
+        <v>7985000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12843000</v>
+        <v>15149000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12843000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>63522000</v>
+      <c r="B11" t="n">
+        <v>64467000</v>
       </c>
     </row>
   </sheetData>
@@ -4615,7 +4937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5063,26 +5385,51 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>945000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>34055000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>181380000</v>
-      </c>
-      <c r="C18" t="n">
-        <v>155580000</v>
-      </c>
-      <c r="D18" t="n">
-        <v>28</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="B19" t="n">
+        <v>216380000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>190580000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>31</v>
+      </c>
+      <c r="E19" t="n">
         <v>34700000</v>
       </c>
-      <c r="F18" t="n">
-        <v>63522000</v>
-      </c>
-      <c r="G18" t="n">
-        <v>126758000</v>
+      <c r="F19" t="n">
+        <v>64467000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>160813000</v>
       </c>
     </row>
   </sheetData>
